--- a/тесты/программированиеООП.xlsx
+++ b/тесты/программированиеООП.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\testgen2\тесты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568DC86D-8E11-41A0-A66D-C17D282B8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069D887F-06EA-47EB-A6BC-3AFFB717B436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="628">
   <si>
     <t>Тема</t>
   </si>
@@ -720,114 +720,6 @@
     <t>Спецификация методов класса</t>
   </si>
   <si>
-    <t>Что такое late binding в C++?</t>
-  </si>
-  <si>
-    <t>Связывание методов с их реализациями во время выполнения программы</t>
-  </si>
-  <si>
-    <t>Задержка вызова метода до определенного момента</t>
-  </si>
-  <si>
-    <t>Привязка параметров к функциям</t>
-  </si>
-  <si>
-    <t>Отложенное создание объекта</t>
-  </si>
-  <si>
-    <t>Что такое smart pointers в C++?</t>
-  </si>
-  <si>
-    <t>Указатели, которые управляют временем жизни объектов и предотвращают утечки памяти</t>
-  </si>
-  <si>
-    <t>Указатели, которые автоматически преобразуются в нужные типы</t>
-  </si>
-  <si>
-    <t>Указатели, которые поддерживают работу с умными устройствами</t>
-  </si>
-  <si>
-    <t>Указатели, которые позволяют работать с большими объемами данных</t>
-  </si>
-  <si>
-    <t>Что такое CRTP (Curiously Recurring Template Pattern)?</t>
-  </si>
-  <si>
-    <t>Шаблон проектирования, в котором базовый класс параметризован своим производным классом</t>
-  </si>
-  <si>
-    <t>Паттерн, позволяющий создавать рекурсивные шаблоны</t>
-  </si>
-  <si>
-    <t>Паттерн, использующийся для оптимизации кода</t>
-  </si>
-  <si>
-    <t>Паттерн, применяемый для создания циклов в программах</t>
-  </si>
-  <si>
-    <t>Что такое early binding в C++?</t>
-  </si>
-  <si>
-    <t>Связывание методов с их реализациями на этапе компиляции</t>
-  </si>
-  <si>
-    <t>Ранний вызов метода в программе</t>
-  </si>
-  <si>
-    <t>Создание объекта до начала основной программы</t>
-  </si>
-  <si>
-    <t>Что такое multiple inheritance в C++?</t>
-  </si>
-  <si>
-    <t>Наследование класса от нескольких базовых классов одновременно</t>
-  </si>
-  <si>
-    <t>Что такое forward declaration в C++?</t>
-  </si>
-  <si>
-    <t>Объявление класса или функции без определения</t>
-  </si>
-  <si>
-    <t>Декларация класса перед его использованием</t>
-  </si>
-  <si>
-    <t>Указание на то, что класс будет определен позже</t>
-  </si>
-  <si>
-    <t>Объявление переменной перед ее использованием</t>
-  </si>
-  <si>
-    <t>Что такое diamond problem в C++?</t>
-  </si>
-  <si>
-    <t>Проблема множественного наследования, когда два базовых класса имеют общий предок</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Проблема циклического наследования</t>
-  </si>
-  <si>
-    <t>Проблема многократного вызова деструктора</t>
-  </si>
-  <si>
-    <t>Проблема создания слишком большого количества объектов</t>
-  </si>
-  <si>
-    <t>Что такое virtual inheritance в C++?</t>
-  </si>
-  <si>
-    <t>Механизм разрешения diamond problem путем создания общего экземпляра базового класса</t>
-  </si>
-  <si>
-    <t>Наследование виртуальных методов</t>
-  </si>
-  <si>
-    <t>Наследование классов, определенных как виртуальные</t>
-  </si>
-  <si>
-    <t>Наследование через указатели</t>
-  </si>
-  <si>
     <t>Что такое Windows Forms?</t>
   </si>
   <si>
@@ -1650,6 +1542,801 @@
       </rPr>
       <t> перед методом класса?</t>
     </r>
+  </si>
+  <si>
+    <t>Какое ограничение накладывается на виртуальные базовые классы при множественном наследовании?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Они должны иметь одинаковые конструкторы  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Они должны быть определены только один раз  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Они не могут содержать виртуальных методов  </t>
+  </si>
+  <si>
+    <t>Они не могут содержать данных-членов</t>
+  </si>
+  <si>
+    <t>Какова основная причина использования виртуального наследования в C++?</t>
+  </si>
+  <si>
+    <t>Избежание дублирования данных-членов в производном классе</t>
+  </si>
+  <si>
+    <t>Повышение безопасности программы</t>
+  </si>
+  <si>
+    <t>Увеличение гибкости программы</t>
+  </si>
+  <si>
+    <t>Сокращение времени компиляции</t>
+  </si>
+  <si>
+    <t>Как избежать проблемы "алмазного наследования" в C++?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использовать одиночное наследование вместо множественного  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использовать виртуальное наследование  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использовать интерфейсы вместо классов  </t>
+  </si>
+  <si>
+    <t>Использовать ключевое слово `override`</t>
+  </si>
+  <si>
+    <t>Каковы основные недостатки множественного наследования в C++?</t>
+  </si>
+  <si>
+    <t>Сложность понимания и поддержки кода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Увеличение времени компиляции </t>
+  </si>
+  <si>
+    <t>Уменьшение производительности</t>
+  </si>
+  <si>
+    <t>Все вышеперечисленное</t>
+  </si>
+  <si>
+    <t>Какую роль играет ключевое слово `virtual` при множественном наследовании в C++?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позволяет избежать дублирования данных-членов в производном классе  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позволяет вызывать методы базового класса непосредственно  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позволяет переопределять методы базового класса в производном классе  </t>
+  </si>
+  <si>
+    <t>Позволяет определять абстрактные методы</t>
+  </si>
+  <si>
+    <t>Как правильно вызвать метод базового класса при множественном наследовании в C++?</t>
+  </si>
+  <si>
+    <t>Base1::method();</t>
+  </si>
+  <si>
+    <t>this-&gt;Base1.method();</t>
+  </si>
+  <si>
+    <t>Base1.method();</t>
+  </si>
+  <si>
+    <t>method&lt;Base1&gt;();</t>
+  </si>
+  <si>
+    <t>Какая ситуация приводит к проблеме "алмазного наследования"?</t>
+  </si>
+  <si>
+    <t>Два базовых класса наследуются от одного и того же класса</t>
+  </si>
+  <si>
+    <t>Один базовый класс наследуется от двух других классов</t>
+  </si>
+  <si>
+    <t>Три базовых класса наследуются друг от друга</t>
+  </si>
+  <si>
+    <t>Четыре базовых класса наследуются друг от друга</t>
+  </si>
+  <si>
+    <t>Каково основное отличие между одиночным и множественным наследованием в C++?</t>
+  </si>
+  <si>
+    <t>Количество базовых классов, от которых наследуется производный класс</t>
+  </si>
+  <si>
+    <t>Способ вызова конструкторов базовых классов</t>
+  </si>
+  <si>
+    <t>Способ разрешения конфликтов имен методов</t>
+  </si>
+  <si>
+    <t>Наличие виртуальных методов</t>
+  </si>
+  <si>
+    <t>Каково основное преимущество множественного наследования в C++?</t>
+  </si>
+  <si>
+    <t>Возможность повторного использования кода из нескольких источников</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Упрощение структуры программы  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улучшение производительности </t>
+  </si>
+  <si>
+    <t>Уменьшение размера исполняемого файла</t>
+  </si>
+  <si>
+    <t>Что такое класс в C++?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Набор инструкций для выполнения определенной задачи  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение структуры данных и методов для работы с ними  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Функция, принимающая аргументы и возвращающая результат  </t>
+  </si>
+  <si>
+    <t>Переменная, хранящая значение</t>
+  </si>
+  <si>
+    <t>Как создается объект класса в C++?</t>
+  </si>
+  <si>
+    <t>Object object;</t>
+  </si>
+  <si>
+    <t>object Object;</t>
+  </si>
+  <si>
+    <t>Object = object;</t>
+  </si>
+  <si>
+    <t>create Object;</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для определения конструктора класса в C++?</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>Имя класса</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для определения деструктора класса в C++?</t>
+  </si>
+  <si>
+    <t>destructor</t>
+  </si>
+  <si>
+    <t>~Имя_класса</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для указания, что метод принадлежит классу?</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для создания приватных членов класса в C++?</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>invisible</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для создания защищенных членов класса в C++?</t>
+  </si>
+  <si>
+    <t>guarded</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для создания публичных членов класса в C++?</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>exposed</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>Какая операция используется для доступа к членам класса через объект?</t>
+  </si>
+  <si>
+    <t>. (точка)</t>
+  </si>
+  <si>
+    <t>-&gt; (стрелка)</t>
+  </si>
+  <si>
+    <t>:: (диапазон)</t>
+  </si>
+  <si>
+    <t>&amp; (амперсанд)</t>
+  </si>
+  <si>
+    <t>Какая операция используется для доступа к членам класса через указатель на объект?</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>ancestor</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для объявления метода, который не может быть переопределен в производных классах?</t>
+  </si>
+  <si>
+    <t>immutable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какое ключевое слово используется для объявления класса, который нельзя наследовать?</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для объявления метода, который должен быть реализован в производных классах?</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>pure</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для объявления чистого виртуального метода в C++?</t>
+  </si>
+  <si>
+    <t>`= 0`</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для объявления шаблона класса в C++?</t>
+  </si>
+  <si>
+    <t>typename</t>
+  </si>
+  <si>
+    <t>template &lt;&gt; class MyClass&lt;int&gt; {};</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как передается конкретный тип параметру шаблона класса при создании объекта?</t>
+  </si>
+  <si>
+    <t>MyClass&lt;int&gt; obj;</t>
+  </si>
+  <si>
+    <t>int MyClass obj;</t>
+  </si>
+  <si>
+    <t>MyClass(obj&lt;int&gt;);</t>
+  </si>
+  <si>
+    <t>obj&lt;MyClass&lt;int&gt;&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какое ключевое слово используется для указания параметра шаблона по умолчанию в объявлении шаблона класса?</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>typedef</t>
+  </si>
+  <si>
+    <t>Как объявляется шаблон класса с двумя параметрами?</t>
+  </si>
+  <si>
+    <t>template&lt;typename T, typename U&gt; class MyClass {};</t>
+  </si>
+  <si>
+    <t>template&lt;T, U&gt; class MyClass {};</t>
+  </si>
+  <si>
+    <t>class MyClass&lt;T, U&gt; {};</t>
+  </si>
+  <si>
+    <t>template(class T, class U) class MyClass {};</t>
+  </si>
+  <si>
+    <t>Как реализуется метод шаблона класса вне тела класса?</t>
+  </si>
+  <si>
+    <t>template&lt;typename T&gt; void MyClass&lt;T&gt;::myMethod() {}</t>
+  </si>
+  <si>
+    <t>void MyClass::myMethod&lt;T&gt;() {}</t>
+  </si>
+  <si>
+    <t>template&lt;typename T&gt; MyClass::myMethod() {}</t>
+  </si>
+  <si>
+    <t>template MyClass::myMethod&lt;T&gt;() {}</t>
+  </si>
+  <si>
+    <t>Каково назначение параметра шаблона по умолчанию в объявлении шаблона класса?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используется, если при создании объекта не указан конкретный тип  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определяет имя класса  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Устанавливает максимальное число параметров шаблона  </t>
+  </si>
+  <si>
+    <t>Указывает на то, что класс является абстрактным</t>
+  </si>
+  <si>
+    <t>Как называются шаблоны, которые могут принимать произвольное количество аргументов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вариативные шаблоны  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полиморфные шаблоны  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Универсальные шаблоны  </t>
+  </si>
+  <si>
+    <t>Множественные шаблоны</t>
+  </si>
+  <si>
+    <t>Как объявляются вариативные шаблоны классов в C++?</t>
+  </si>
+  <si>
+    <t>template&lt;typename... Ts&gt; class MyClass {};</t>
+  </si>
+  <si>
+    <t>template&lt;variadic Ts&gt; class MyClass {};</t>
+  </si>
+  <si>
+    <t>template&lt;class... Ts&gt; class MyClass {};</t>
+  </si>
+  <si>
+    <t>template&lt;multiple Ts&gt; class MyClass {};</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для создания класса в C++?</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для определения конструктора копирования в C++?</t>
+  </si>
+  <si>
+    <t>copy constructor</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>Имя класса с аргументом типа ссылки на тот же класс</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для определения оператора присваивания в C++?</t>
+  </si>
+  <si>
+    <t>operator=</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для обозначения дружественной функции в C++?</t>
+  </si>
+  <si>
+    <t>buddy</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>related</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для явного вызова конструктора базового класса в конструкторе производного класса?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя базового класса  </t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для уничтожения объекта в C++?</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>erase</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для защиты данных-членов класса от прямого доступа извне?</t>
+  </si>
+  <si>
+    <t>restricted</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для создания виртуальной функции в C++?</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>polymorphic</t>
+  </si>
+  <si>
+    <t>overridable</t>
+  </si>
+  <si>
+    <t>Что такое перегрузка функций в C++?</t>
+  </si>
+  <si>
+    <r>
+      <t>Возможность создания нескольких функций с разными именами, выполняющих схожие задачи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Возможность создания нескольких функций с одинаковым именем, но разным набором параметров</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Возможность изменения поведения стандартной функции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Возможность создания функций, работающих с различными типами данных</t>
+  </si>
+  <si>
+    <t>Какая цель перегрузки операторов в C++?</t>
+  </si>
+  <si>
+    <r>
+      <t>Упростить синтаксис программы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Изменить поведение стандартных операторов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Добавить новые операторы в язык</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Реализовать полиморфизм</t>
+  </si>
+  <si>
+    <t>Можно ли перегружать оператор присваивания в C++?</t>
+  </si>
+  <si>
+    <r>
+      <t>Да, это возможно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Нет, это запрещено языком</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Только для встроенных типов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Только для классов</t>
+  </si>
+  <si>
+    <t>Какое ключевое слово используется для объявления перегруженного оператора в C++?</t>
+  </si>
+  <si>
+    <r>
+      <t>overload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>operator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>redefine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>override</t>
+  </si>
+  <si>
+    <t>Какая из приведённых ниже записей является примером перегрузки оператора?</t>
+  </si>
+  <si>
+    <r>
+      <t>int operator+(int a, int b) { return a + b; }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>int add(int a, int b) { return a + b; }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>int multiply(int a, int b) { return a * b; }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>int subtract(int a, int b) { return a - b; }</t>
+  </si>
+  <si>
+    <t>Как добавить текстовое поле на форму в приложении Windows Forms?</t>
+  </si>
+  <si>
+    <t>TextBox^ textBox = gcnew TextBox(); this-&gt;Controls-&gt;Add(textBox);</t>
+  </si>
+  <si>
+    <t>this-&gt;textBox = new TextBox(); Controls.Add(textBox);</t>
+  </si>
+  <si>
+    <t>TextBox* textBox = new TextBox(); Form.Controls.Add(textBox);</t>
+  </si>
+  <si>
+    <t>TextBox textBox = new TextBox(); AddControl(textBox);</t>
+  </si>
+  <si>
+    <t>Как изменить шрифт текста в элементе управления в Windows Forms?</t>
+  </si>
+  <si>
+    <t>Как сделать форму полноэкранной в Windows Forms?</t>
+  </si>
+  <si>
+    <t>Как задать положение формы на экране в Windows Forms?</t>
+  </si>
+  <si>
+    <t>Как изменить цвет фона формы в приложении Windows Forms?</t>
+  </si>
+  <si>
+    <t>Как добавить изображение на форму в приложении Windows Forms?</t>
+  </si>
+  <si>
+    <t>PictureBox^ pictureBox = gcnew PictureBox(); this-&gt;Controls-&gt;Add(pictureBox);</t>
+  </si>
+  <si>
+    <t>this-&gt;pictureBox = new PictureBox(); Controls.Add(pictureBox);</t>
+  </si>
+  <si>
+    <t>PictureBox* pictureBox = new PictureBox(); Form.Controls.Add(pictureBox);</t>
+  </si>
+  <si>
+    <t>PictureBox pictureBox = new PictureBox(); AddControl(pictureBox);</t>
   </si>
 </sst>
 </file>
@@ -2027,16 +2714,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.265625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="39.3984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="45" style="7" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" style="7" customWidth="1"/>
     <col min="5" max="5" width="21.53125" style="7" customWidth="1"/>
@@ -2070,7 +2757,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -2093,7 +2780,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -2116,7 +2803,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -2139,7 +2826,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -2162,10 +2849,10 @@
     </row>
     <row r="6" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -2185,7 +2872,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -2208,7 +2895,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>36</v>
@@ -2231,7 +2918,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>41</v>
@@ -2254,7 +2941,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>46</v>
@@ -2277,7 +2964,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>51</v>
@@ -2300,7 +2987,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>56</v>
@@ -2323,7 +3010,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>61</v>
@@ -2346,7 +3033,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>66</v>
@@ -2369,7 +3056,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>71</v>
@@ -2392,7 +3079,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>76</v>
@@ -2415,7 +3102,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>81</v>
@@ -2438,7 +3125,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>86</v>
@@ -2461,7 +3148,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>91</v>
@@ -2484,7 +3171,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>96</v>
@@ -2507,7 +3194,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>101</v>
@@ -2530,7 +3217,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>106</v>
@@ -2553,7 +3240,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>111</v>
@@ -2576,7 +3263,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>116</v>
@@ -2599,7 +3286,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>121</v>
@@ -2622,7 +3309,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>126</v>
@@ -2645,7 +3332,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>131</v>
@@ -2668,7 +3355,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>136</v>
@@ -2691,7 +3378,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>141</v>
@@ -2714,7 +3401,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>146</v>
@@ -2737,7 +3424,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>151</v>
@@ -2760,7 +3447,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>156</v>
@@ -2783,7 +3470,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>161</v>
@@ -2806,7 +3493,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>166</v>
@@ -2829,183 +3516,183 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>175</v>
+        <v>272</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="G35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>180</v>
+        <v>272</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="G36" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>185</v>
+        <v>272</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="G37" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>189</v>
+        <v>272</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="G38" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>70</v>
+        <v>272</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="G39" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>193</v>
+        <v>272</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>452</v>
       </c>
       <c r="G40" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>201</v>
+        <v>272</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="G41" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>206</v>
+        <v>272</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>462</v>
       </c>
       <c r="G42" s="7">
         <v>1</v>
@@ -3013,22 +3700,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="G43" s="7">
         <v>4</v>
@@ -3036,22 +3723,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="G44" s="7">
         <v>1</v>
@@ -3059,22 +3746,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -3082,22 +3769,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -3105,22 +3792,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="G47" s="7">
         <v>1</v>
@@ -3128,22 +3815,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="G48" s="7">
         <v>1</v>
@@ -3151,22 +3838,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
@@ -3174,22 +3861,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="G50" s="7">
         <v>3</v>
@@ -3197,22 +3884,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G51" s="7">
         <v>2</v>
@@ -3220,22 +3907,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="G52" s="7">
         <v>4</v>
@@ -3243,22 +3930,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
@@ -3266,22 +3953,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="G54" s="7">
         <v>3</v>
@@ -3289,22 +3976,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="G55" s="7">
         <v>1</v>
@@ -3312,22 +3999,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="G56" s="7">
         <v>2</v>
@@ -3335,22 +4022,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
@@ -3358,22 +4045,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="G58" s="7">
         <v>4</v>
@@ -3381,22 +4068,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="G59" s="7">
         <v>3</v>
@@ -3404,45 +4091,45 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>296</v>
+        <v>271</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>618</v>
       </c>
       <c r="G60" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>297</v>
+        <v>619</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="G61" s="7">
         <v>2</v>
@@ -3450,68 +4137,68 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>302</v>
+        <v>620</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>303</v>
+        <v>239</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="G62" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>309</v>
+        <v>621</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="G63" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>314</v>
+        <v>622</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="G64" s="7">
         <v>1</v>
@@ -3519,206 +4206,206 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>319</v>
+        <v>623</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>320</v>
+        <v>624</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>321</v>
+        <v>625</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>322</v>
+        <v>626</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>323</v>
+        <v>627</v>
       </c>
       <c r="G65" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>328</v>
+        <v>271</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="G66" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="G67" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="G68" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>341</v>
+        <v>275</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="G69" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="G70" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="G71" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="G72" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
@@ -3726,45 +4413,45 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="G74" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="G75" s="7">
         <v>2</v>
@@ -3772,91 +4459,91 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="C76" s="6" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="G76" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="G77" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
       <c r="G78" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="G79" s="7">
         <v>1</v>
@@ -3864,68 +4551,68 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="G80" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>398</v>
+        <v>20</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>397</v>
+        <v>21</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="G81" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>403</v>
+        <v>337</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="G82" s="7">
         <v>1</v>
@@ -3933,160 +4620,160 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>406</v>
+        <v>340</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="G83" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="G84" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>416</v>
+        <v>350</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>417</v>
+        <v>351</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>419</v>
+        <v>353</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>420</v>
+        <v>354</v>
       </c>
       <c r="G85" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>424</v>
+        <v>358</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>425</v>
+        <v>359</v>
       </c>
       <c r="G86" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="G87" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>432</v>
+        <v>369</v>
       </c>
       <c r="G88" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>437</v>
+        <v>371</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="G89" s="7">
         <v>1</v>
@@ -4094,94 +4781,1175 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>442</v>
+        <v>378</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="G90" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="G91" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="G92" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G94" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G96" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G98" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G99" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G100" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G101" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="G102" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="G103" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G104" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="G105" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="G106" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="G109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="G110" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="G111" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="G112" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="G113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="G114" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="G116" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G118" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G119" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="G120" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="G121" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="G123" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="G124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="G125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="G126" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G93" s="7">
+      <c r="C128" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="G128" s="7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="G129" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="G131" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="G132" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A133" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="G133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A134" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="G134" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A135" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G135" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A136" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="G136" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="G137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A139" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="G139" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A140" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="G140" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/тесты/программированиеООП.xlsx
+++ b/тесты/программированиеООП.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\testgen2\тесты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069D887F-06EA-47EB-A6BC-3AFFB717B436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A3DF97-CB20-4CE5-BAB4-1773533DC2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,18 +33,6 @@
     <t>Вопрос</t>
   </si>
   <si>
-    <t>Ответ 1</t>
-  </si>
-  <si>
-    <t>Ответ 2</t>
-  </si>
-  <si>
-    <t>Ответ 3</t>
-  </si>
-  <si>
-    <t>Ответ 4</t>
-  </si>
-  <si>
     <t>Номер правильного</t>
   </si>
   <si>
@@ -2338,17 +2326,37 @@
   <si>
     <t>PictureBox pictureBox = new PictureBox(); AddControl(pictureBox);</t>
   </si>
+  <si>
+    <t>Ответ1</t>
+  </si>
+  <si>
+    <t>Ответ2</t>
+  </si>
+  <si>
+    <t>Ответ3</t>
+  </si>
+  <si>
+    <t>Ответ4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2422,18 +2430,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2717,7 +2726,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2739,40 +2748,40 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="7">
         <v>1</v>
@@ -2780,22 +2789,22 @@
     </row>
     <row r="3" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -2803,22 +2812,22 @@
     </row>
     <row r="4" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -2826,22 +2835,22 @@
     </row>
     <row r="5" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -2849,22 +2858,22 @@
     </row>
     <row r="6" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -2872,22 +2881,22 @@
     </row>
     <row r="7" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -2895,22 +2904,22 @@
     </row>
     <row r="8" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="G8" s="7">
         <v>2</v>
@@ -2918,22 +2927,22 @@
     </row>
     <row r="9" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G9" s="7">
         <v>3</v>
@@ -2941,22 +2950,22 @@
     </row>
     <row r="10" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -2964,22 +2973,22 @@
     </row>
     <row r="11" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -2987,22 +2996,22 @@
     </row>
     <row r="12" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -3010,22 +3019,22 @@
     </row>
     <row r="13" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
@@ -3033,22 +3042,22 @@
     </row>
     <row r="14" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7">
         <v>4</v>
@@ -3056,22 +3065,22 @@
     </row>
     <row r="15" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
@@ -3079,22 +3088,22 @@
     </row>
     <row r="16" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G16" s="7">
         <v>3</v>
@@ -3102,22 +3111,22 @@
     </row>
     <row r="17" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -3125,22 +3134,22 @@
     </row>
     <row r="18" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7">
         <v>4</v>
@@ -3148,22 +3157,22 @@
     </row>
     <row r="19" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
@@ -3171,22 +3180,22 @@
     </row>
     <row r="20" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="G20" s="7">
         <v>3</v>
@@ -3194,22 +3203,22 @@
     </row>
     <row r="21" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G21" s="7">
         <v>2</v>
@@ -3217,22 +3226,22 @@
     </row>
     <row r="22" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
@@ -3240,22 +3249,22 @@
     </row>
     <row r="23" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7">
         <v>4</v>
@@ -3263,22 +3272,22 @@
     </row>
     <row r="24" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="G24" s="7">
         <v>3</v>
@@ -3286,22 +3295,22 @@
     </row>
     <row r="25" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -3309,22 +3318,22 @@
     </row>
     <row r="26" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
@@ -3332,22 +3341,22 @@
     </row>
     <row r="27" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="G27" s="7">
         <v>1</v>
@@ -3355,22 +3364,22 @@
     </row>
     <row r="28" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G28" s="7">
         <v>3</v>
@@ -3378,22 +3387,22 @@
     </row>
     <row r="29" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7">
         <v>4</v>
@@ -3401,22 +3410,22 @@
     </row>
     <row r="30" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
@@ -3424,22 +3433,22 @@
     </row>
     <row r="31" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="G31" s="7">
         <v>2</v>
@@ -3447,22 +3456,22 @@
     </row>
     <row r="32" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="G32" s="7">
         <v>3</v>
@@ -3470,22 +3479,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -3493,22 +3502,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G34" s="7">
         <v>4</v>
@@ -3516,22 +3525,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="G35" s="7">
         <v>2</v>
@@ -3539,22 +3548,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="G36" s="7">
         <v>1</v>
@@ -3562,22 +3571,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="G37" s="7">
         <v>2</v>
@@ -3585,22 +3594,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="G38" s="7">
         <v>4</v>
@@ -3608,22 +3617,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="G39" s="7">
         <v>1</v>
@@ -3631,22 +3640,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="G40" s="7">
         <v>1</v>
@@ -3654,22 +3663,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>457</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -3677,22 +3686,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="G42" s="7">
         <v>1</v>
@@ -3700,22 +3709,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G43" s="7">
         <v>4</v>
@@ -3723,22 +3732,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="G44" s="7">
         <v>1</v>
@@ -3746,22 +3755,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -3769,22 +3778,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -3792,22 +3801,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G47" s="7">
         <v>1</v>
@@ -3815,22 +3824,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="G48" s="7">
         <v>1</v>
@@ -3838,22 +3847,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
@@ -3861,22 +3870,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="G50" s="7">
         <v>3</v>
@@ -3884,22 +3893,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="G51" s="7">
         <v>2</v>
@@ -3907,22 +3916,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="F52" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G52" s="7">
         <v>4</v>
@@ -3930,22 +3939,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
@@ -3953,22 +3962,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="G54" s="7">
         <v>3</v>
@@ -3976,22 +3985,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="G55" s="7">
         <v>1</v>
@@ -3999,22 +4008,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="G56" s="7">
         <v>2</v>
@@ -4022,22 +4031,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
@@ -4045,22 +4054,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="F58" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G58" s="7">
         <v>4</v>
@@ -4068,22 +4077,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="G59" s="7">
         <v>3</v>
@@ -4091,22 +4100,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="G60" s="7">
         <v>1</v>
@@ -4114,22 +4123,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G61" s="7">
         <v>2</v>
@@ -4137,22 +4146,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G62" s="7">
         <v>1</v>
@@ -4160,22 +4169,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G63" s="7">
         <v>4</v>
@@ -4183,22 +4192,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G64" s="7">
         <v>1</v>
@@ -4206,22 +4215,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>627</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
@@ -4229,22 +4238,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="G66" s="7">
         <v>3</v>
@@ -4252,22 +4261,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="G67" s="7">
         <v>2</v>
@@ -4275,22 +4284,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="G68" s="7">
         <v>3</v>
@@ -4298,22 +4307,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="G69" s="7">
         <v>3</v>
@@ -4321,22 +4330,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="G70" s="7">
         <v>1</v>
@@ -4344,22 +4353,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="G71" s="7">
         <v>2</v>
@@ -4367,22 +4376,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="G72" s="7">
         <v>1</v>
@@ -4390,22 +4399,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
@@ -4413,22 +4422,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
@@ -4436,22 +4445,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="G75" s="7">
         <v>2</v>
@@ -4459,22 +4468,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="G76" s="7">
         <v>2</v>
@@ -4482,22 +4491,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="G77" s="7">
         <v>3</v>
@@ -4505,22 +4514,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
@@ -4528,22 +4537,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="G79" s="7">
         <v>1</v>
@@ -4551,22 +4560,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F80" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="G80" s="7">
         <v>3</v>
@@ -4574,22 +4583,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G81" s="7">
         <v>2</v>
@@ -4597,22 +4606,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F82" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="G82" s="7">
         <v>1</v>
@@ -4620,22 +4629,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="F83" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G83" s="7">
         <v>4</v>
@@ -4643,22 +4652,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F84" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="G84" s="7">
         <v>1</v>
@@ -4666,22 +4675,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
@@ -4689,22 +4698,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
@@ -4712,22 +4721,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="G87" s="7">
         <v>3</v>
@@ -4735,22 +4744,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F88" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="G88" s="7">
         <v>1</v>
@@ -4758,22 +4767,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="G89" s="7">
         <v>1</v>
@@ -4781,22 +4790,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="G90" s="7">
         <v>2</v>
@@ -4804,22 +4813,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="G91" s="7">
         <v>2</v>
@@ -4827,22 +4836,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F92" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="G92" s="7">
         <v>3</v>
@@ -4850,22 +4859,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="G93" s="7">
         <v>1</v>
@@ -4873,22 +4882,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>399</v>
-      </c>
       <c r="F94" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G94" s="7">
         <v>4</v>
@@ -4896,22 +4905,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>404</v>
       </c>
       <c r="G95" s="7">
         <v>1</v>
@@ -4919,22 +4928,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G96" s="7">
         <v>3</v>
@@ -4942,22 +4951,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="G97" s="7">
         <v>1</v>
@@ -4965,22 +4974,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G98" s="7">
         <v>4</v>
@@ -4988,22 +4997,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F99" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="G99" s="7">
         <v>2</v>
@@ -5011,22 +5020,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F100" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="G100" s="7">
         <v>1</v>
@@ -5034,22 +5043,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G101" s="7">
         <v>1</v>
@@ -5057,22 +5066,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="F102" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="G102" s="7">
         <v>2</v>
@@ -5080,22 +5089,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="F103" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="G103" s="7">
         <v>1</v>
@@ -5103,22 +5112,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>482</v>
-      </c>
       <c r="F104" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G104" s="7">
         <v>4</v>
@@ -5126,22 +5135,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F105" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="G105" s="7">
         <v>2</v>
@@ -5149,22 +5158,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G106" s="7">
         <v>2</v>
@@ -5172,22 +5181,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G107" s="7">
         <v>1</v>
@@ -5195,22 +5204,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G108" s="7">
         <v>1</v>
@@ -5218,22 +5227,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G109" s="7">
         <v>1</v>
@@ -5241,22 +5250,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B110" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="G110" s="7">
         <v>1</v>
@@ -5264,22 +5273,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G111" s="7">
         <v>2</v>
@@ -5287,22 +5296,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G112" s="7">
         <v>2</v>
@@ -5310,22 +5319,22 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G113" s="7">
         <v>1</v>
@@ -5333,22 +5342,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G114" s="7">
         <v>1</v>
@@ -5356,22 +5365,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G115" s="7">
         <v>1</v>
@@ -5379,22 +5388,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="F116" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>524</v>
       </c>
       <c r="G116" s="7">
         <v>1</v>
@@ -5402,22 +5411,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G117" s="7">
         <v>2</v>
@@ -5425,22 +5434,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F118" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="G118" s="7">
         <v>1</v>
@@ -5448,22 +5457,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B119" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F119" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="G119" s="7">
         <v>3</v>
@@ -5471,22 +5480,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B120" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="F120" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>533</v>
       </c>
       <c r="G120" s="7">
         <v>2</v>
@@ -5494,22 +5503,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G121" s="7">
         <v>4</v>
@@ -5517,22 +5526,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B122" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="F122" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="G122" s="7">
         <v>1</v>
@@ -5540,22 +5549,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B123" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>547</v>
-      </c>
       <c r="D123" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G123" s="7">
         <v>3</v>
@@ -5563,22 +5572,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F124" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="G124" s="7">
         <v>1</v>
@@ -5586,22 +5595,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B125" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F125" s="6" t="s">
         <v>553</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>557</v>
       </c>
       <c r="G125" s="7">
         <v>1</v>
@@ -5609,22 +5618,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F126" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="G126" s="7">
         <v>2</v>
@@ -5632,22 +5641,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G127" s="7">
         <v>1</v>
@@ -5655,22 +5664,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G128" s="7">
         <v>2</v>
@@ -5678,22 +5687,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B129" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F129" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>568</v>
       </c>
       <c r="G129" s="7">
         <v>4</v>
@@ -5701,22 +5710,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B130" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F130" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="G130" s="7">
         <v>1</v>
@@ -5724,22 +5733,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G131" s="7">
         <v>2</v>
@@ -5747,22 +5756,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G132" s="7">
         <v>3</v>
@@ -5770,22 +5779,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G133" s="7">
         <v>1</v>
@@ -5793,22 +5802,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G134" s="7">
         <v>1</v>
@@ -5816,22 +5825,22 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G135" s="7">
         <v>3</v>
@@ -5839,22 +5848,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="G136" s="7">
         <v>2</v>
@@ -5862,22 +5871,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="G137" s="7">
         <v>1</v>
@@ -5885,22 +5894,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>603</v>
       </c>
       <c r="G138" s="7">
         <v>1</v>
@@ -5908,22 +5917,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F139" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>608</v>
       </c>
       <c r="G139" s="7">
         <v>2</v>
@@ -5931,22 +5940,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="F140" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="G140" s="7">
         <v>1</v>
